--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/PCLOUD_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/PCLOUD_ORACLE_COLLECTED_RESULTS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED RESULTS/COLLECTED_RESULTS_MAIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="PCLOUD_HOLE_CollectedResults" sheetId="7" r:id="rId7"/>
     <sheet name="PCLOUD_NA_CollectedResults" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -896,11 +896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551984592"/>
-        <c:axId val="552678752"/>
+        <c:axId val="-210168656"/>
+        <c:axId val="-210193568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="551984592"/>
+        <c:axId val="-210168656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552678752"/>
+        <c:crossAx val="-210193568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552678752"/>
+        <c:axId val="-210193568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551984592"/>
+        <c:crossAx val="-210168656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,9 +1629,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -3454,6 +3454,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">

--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/PCLOUD_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/PCLOUD_ORACLE_COLLECTED_RESULTS.xlsx
@@ -341,13 +341,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PCLOUD Training</a:t>
+              <a:t>PCLOUD HUMAN ORACLE</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Average of 25 Tests)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -896,11 +891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-210168656"/>
-        <c:axId val="-210193568"/>
+        <c:axId val="1470786816"/>
+        <c:axId val="1470788448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-210168656"/>
+        <c:axId val="1470786816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210193568"/>
+        <c:crossAx val="1470788448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-210193568"/>
+        <c:axId val="1470788448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210168656"/>
+        <c:crossAx val="1470786816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3450,7 +3445,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
